--- a/data/TestPlanESA.xlsx
+++ b/data/TestPlanESA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamic Properties" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="160">
   <si>
     <t>ACTION</t>
   </si>
@@ -520,6 +520,12 @@
   </si>
   <si>
     <t>When we want to change added state, after we added state and a city in the "Select State" and "Select City" labels, if we change the state, city will still be selected and available from last selected state, and we can successfully finish Student registration form with invalid data.</t>
+  </si>
+  <si>
+    <t>Assert data</t>
+  </si>
+  <si>
+    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -1247,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1264,10 +1270,11 @@
     <col min="7" max="7" width="14.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="17.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="10" max="10" width="26.5703125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -1295,8 +1302,11 @@
       <c r="I1" s="6" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="30">
+      <c r="J1" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1316,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1327,7 +1337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
+    <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
@@ -1338,7 +1348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
+    <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1349,7 +1359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30">
+    <row r="6" spans="1:10" ht="30">
       <c r="C6" s="3" t="s">
         <v>109</v>
       </c>
@@ -1360,7 +1370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1371,7 +1381,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="47.25" customHeight="1">
+    <row r="8" spans="1:10" ht="47.25" customHeight="1">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -1388,7 +1398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1399,7 +1409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1410,7 +1420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1">
+    <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1421,7 +1431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
@@ -1432,7 +1442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1443,7 +1453,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="30">
+    <row r="14" spans="1:10" ht="30">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -1460,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1471,7 +1481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="C16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1617,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1634,10 +1644,11 @@
     <col min="7" max="7" width="14.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="17.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -1665,8 +1676,11 @@
       <c r="I1" s="6" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="30">
+      <c r="J1" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1685,8 +1699,11 @@
       <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1697,7 +1714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
@@ -1708,7 +1725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="C5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1719,7 +1736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="C6" s="3" t="s">
         <v>41</v>
       </c>
@@ -1733,7 +1750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="C7" s="3" t="s">
         <v>40</v>
       </c>
@@ -1748,7 +1765,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="30">
+    <row r="8" spans="1:10" ht="30">
       <c r="C8" s="3" t="s">
         <v>46</v>
       </c>
@@ -1763,7 +1780,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="30">
+    <row r="9" spans="1:10" ht="30">
       <c r="C9" s="3" t="s">
         <v>104</v>
       </c>
@@ -1775,7 +1792,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="30">
+    <row r="10" spans="1:10" ht="30">
       <c r="C10" s="3" t="s">
         <v>49</v>
       </c>
@@ -1790,7 +1807,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="30">
+    <row r="11" spans="1:10" ht="30">
       <c r="C11" s="3" t="s">
         <v>77</v>
       </c>
@@ -1802,7 +1819,7 @@
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="30">
+    <row r="12" spans="1:10" ht="30">
       <c r="C12" s="3" t="s">
         <v>78</v>
       </c>
@@ -1814,7 +1831,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="C13" s="3" t="s">
         <v>79</v>
       </c>
@@ -1826,7 +1843,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="30">
+    <row r="14" spans="1:10" ht="30">
       <c r="C14" s="3" t="s">
         <v>81</v>
       </c>
@@ -1838,7 +1855,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="C15" s="3" t="s">
         <v>84</v>
       </c>
@@ -1850,7 +1867,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="30">
+    <row r="16" spans="1:10" ht="30">
       <c r="C16" s="3" t="s">
         <v>107</v>
       </c>
@@ -3274,10 +3291,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3291,9 +3308,10 @@
     <col min="7" max="7" width="14.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -3321,8 +3339,11 @@
       <c r="I1" s="6" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="30">
+      <c r="J1" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3341,8 +3362,9 @@
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
@@ -3353,7 +3375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30">
+    <row r="4" spans="1:10" ht="30">
       <c r="C4" s="3" t="s">
         <v>91</v>
       </c>
@@ -3364,7 +3386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:10" ht="30">
       <c r="C5" s="3" t="s">
         <v>93</v>
       </c>
@@ -3383,10 +3405,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3400,9 +3422,10 @@
     <col min="7" max="7" width="14.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -3430,8 +3453,11 @@
       <c r="I1" s="6" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="30">
+      <c r="J1" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3448,8 +3474,9 @@
         <v>3</v>
       </c>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
@@ -3460,7 +3487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="C4" s="3" t="s">
         <v>96</v>
       </c>
@@ -3471,7 +3498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:10" ht="30">
       <c r="C5" s="3" t="s">
         <v>98</v>
       </c>
@@ -3482,7 +3509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -3493,7 +3520,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="30">
+    <row r="7" spans="1:10" ht="30">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -3513,7 +3540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
@@ -3524,7 +3551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="C9" s="3" t="s">
         <v>96</v>
       </c>
@@ -3535,7 +3562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30">
+    <row r="10" spans="1:10" ht="30">
       <c r="C10" s="3" t="s">
         <v>98</v>
       </c>
@@ -3546,7 +3573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30">
+    <row r="11" spans="1:10" ht="30">
       <c r="C11" s="3" t="s">
         <v>101</v>
       </c>
@@ -3559,6 +3586,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
